--- a/biology/Botanique/Uebelmannia/Uebelmannia.xlsx
+++ b/biology/Botanique/Uebelmannia/Uebelmannia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Uebelmannia est un genre de la famille des cactus composé d'environ 7 espèces.
-Il est originaire de l'état de Minas Gerais au Brésil. La première description a été faite en 1967 par Albert Frederik Hendrik Buining[2]. Il l'a dédié au collectionneur botaniste suisse Werner J. Uebelmann (1921-2014)
+Il est originaire de l'état de Minas Gerais au Brésil. La première description a été faite en 1967 par Albert Frederik Hendrik Buining. Il l'a dédié au collectionneur botaniste suisse Werner J. Uebelmann (1921-2014)
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des cactus de forme sphérique ou cylindrique de taille moyenne (jusqu'à 75 cm) ne se ramifiant jamais.
 L'épiderme est cireux, de couleur cendrée à argentée, avec de nombreuses cotes. Les aréoles sont proches les unes des autres et produisent des épines très rapprochées formant comme des crètes.
@@ -545,7 +559,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Uebelmannia sont recherchés car décoratifs avec des cotes marquées et à séparation régulière. Mais ils sont difficiles à cultiver. Le greffage est une solution.
 Ils demandent un éclairage tout au long de l'année et un substrat acide à neutre. Mais aussi une certaine humidité tout au long de l'année.
@@ -579,11 +595,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Uebelmannia gummifera était déjà connu depuis 1938 et décrit sous le genre Parodia. Il a paru nécessaire de créer un nouveau genre pour y loger ces nouvelles espèces. 
-Liste d'espèces
-Uebelmannia pectinifera, la plus connue
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uebelmannia gummifera était déjà connu depuis 1938 et décrit sous le genre Parodia. Il a paru nécessaire de créer un nouveau genre pour y loger ces nouvelles espèces. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Uebelmannia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Uebelmannia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Uebelmannia pectinifera, la plus connue
 Uebelmannia buiningii
 Uebelmannia pseudopectinifera
 Uebelmannia meninensis
